--- a/proj_gantt.xlsx
+++ b/proj_gantt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Project Planner</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>View Tasks (plan)</t>
-  </si>
-  <si>
-    <t>?%</t>
   </si>
   <si>
     <t>Delete task (plan)</t>
@@ -2792,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s" s="63">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
@@ -2831,7 +2828,7 @@
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="43"/>
       <c r="B17" t="s" s="58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="59">
         <v>25</v>
@@ -2890,7 +2887,7 @@
         <v>8</v>
       </c>
       <c r="G18" t="s" s="69">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
